--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Artn-Ret.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Artn-Ret.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,9 +80,6 @@
   </si>
   <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
   <si>
     <t>Artn</t>
@@ -449,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,13 +519,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
-      </c>
-      <c r="D2" t="s">
-        <v>25</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -537,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.121263666666667</v>
+        <v>1.121263666666666</v>
       </c>
       <c r="H2">
         <v>3.363791</v>
       </c>
       <c r="I2">
-        <v>0.466133194611753</v>
+        <v>0.8978163344397481</v>
       </c>
       <c r="J2">
-        <v>0.5564217608170712</v>
+        <v>0.9294754023256565</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.986848333333333</v>
+        <v>1.219350333333333</v>
       </c>
       <c r="N2">
-        <v>5.960545</v>
+        <v>3.658051</v>
       </c>
       <c r="O2">
-        <v>0.3070436244112906</v>
+        <v>0.2422674834150417</v>
       </c>
       <c r="P2">
-        <v>0.3340680476987617</v>
+        <v>0.2576244469655636</v>
       </c>
       <c r="Q2">
-        <v>2.227780847343889</v>
+        <v>1.367213225704555</v>
       </c>
       <c r="R2">
-        <v>20.050027626095</v>
+        <v>12.304919031341</v>
       </c>
       <c r="S2">
-        <v>0.1431232255320061</v>
+        <v>0.2175117039136352</v>
       </c>
       <c r="T2">
-        <v>0.1858827313332663</v>
+        <v>0.239455586492242</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +581,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -599,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.121263666666667</v>
+        <v>1.121263666666666</v>
       </c>
       <c r="H3">
         <v>3.363791</v>
       </c>
       <c r="I3">
-        <v>0.466133194611753</v>
+        <v>0.8978163344397481</v>
       </c>
       <c r="J3">
-        <v>0.5564217608170712</v>
+        <v>0.9294754023256565</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +620,22 @@
         <v>8.740984000000001</v>
       </c>
       <c r="O3">
-        <v>0.4502714782425266</v>
+        <v>0.5789028628226193</v>
       </c>
       <c r="P3">
-        <v>0.4899020911420204</v>
+        <v>0.6155986258624717</v>
       </c>
       <c r="Q3">
-        <v>3.266982590038223</v>
+        <v>3.266982590038222</v>
       </c>
       <c r="R3">
         <v>29.402843310344</v>
       </c>
       <c r="S3">
-        <v>0.2098864825957453</v>
+        <v>0.5197484462960803</v>
       </c>
       <c r="T3">
-        <v>0.2725921841812083</v>
+        <v>0.5721837804446422</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,10 +643,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
@@ -661,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.121263666666667</v>
+        <v>1.121263666666666</v>
       </c>
       <c r="H4">
         <v>3.363791</v>
       </c>
       <c r="I4">
-        <v>0.466133194611753</v>
+        <v>0.8978163344397481</v>
       </c>
       <c r="J4">
-        <v>0.5564217608170712</v>
+        <v>0.9294754023256565</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -679,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.5703895</v>
+        <v>0.9000629999999999</v>
       </c>
       <c r="N4">
-        <v>3.140779</v>
+        <v>1.800126</v>
       </c>
       <c r="O4">
-        <v>0.2426848973461828</v>
+        <v>0.178829653762339</v>
       </c>
       <c r="P4">
-        <v>0.1760298611592177</v>
+        <v>0.1267769271719646</v>
       </c>
       <c r="Q4">
-        <v>1.760820688864833</v>
+        <v>1.009207939611</v>
       </c>
       <c r="R4">
-        <v>10.564924133189</v>
+        <v>6.055247637665999</v>
       </c>
       <c r="S4">
-        <v>0.1131234864840015</v>
+        <v>0.1605561842300325</v>
       </c>
       <c r="T4">
-        <v>0.09794684530259649</v>
+        <v>0.1178360353887722</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,31 +705,31 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>1.170975</v>
+        <v>0.127615</v>
       </c>
       <c r="H5">
-        <v>2.34195</v>
+        <v>0.25523</v>
       </c>
       <c r="I5">
-        <v>0.4867992549719922</v>
+        <v>0.1021836655602519</v>
       </c>
       <c r="J5">
-        <v>0.3873938490071291</v>
+        <v>0.07052459767434344</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.986848333333333</v>
+        <v>1.219350333333333</v>
       </c>
       <c r="N5">
-        <v>5.960545</v>
+        <v>3.658051</v>
       </c>
       <c r="O5">
-        <v>0.3070436244112906</v>
+        <v>0.2422674834150417</v>
       </c>
       <c r="P5">
-        <v>0.3340680476987617</v>
+        <v>0.2576244469655636</v>
       </c>
       <c r="Q5">
-        <v>2.326549727125</v>
+        <v>0.1556073927883333</v>
       </c>
       <c r="R5">
-        <v>13.95929836275</v>
+        <v>0.93364435673</v>
       </c>
       <c r="S5">
-        <v>0.1494686076073165</v>
+        <v>0.02475577950140651</v>
       </c>
       <c r="T5">
-        <v>0.1294159068283205</v>
+        <v>0.0181688604733216</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,31 +767,31 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>1.170975</v>
+        <v>0.127615</v>
       </c>
       <c r="H6">
-        <v>2.34195</v>
+        <v>0.25523</v>
       </c>
       <c r="I6">
-        <v>0.4867992549719922</v>
+        <v>0.1021836655602519</v>
       </c>
       <c r="J6">
-        <v>0.3873938490071291</v>
+        <v>0.07052459767434344</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,22 +806,22 @@
         <v>8.740984000000001</v>
       </c>
       <c r="O6">
-        <v>0.4502714782425266</v>
+        <v>0.5789028628226193</v>
       </c>
       <c r="P6">
-        <v>0.4899020911420204</v>
+        <v>0.6155986258624717</v>
       </c>
       <c r="Q6">
-        <v>3.411824579800001</v>
+        <v>0.3718268910533334</v>
       </c>
       <c r="R6">
-        <v>20.4709474788</v>
+        <v>2.23096134632</v>
       </c>
       <c r="S6">
-        <v>0.2191918201435995</v>
+        <v>0.05915441652653893</v>
       </c>
       <c r="T6">
-        <v>0.1897850567241487</v>
+        <v>0.04341484541782949</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,31 +829,31 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>1.170975</v>
+        <v>0.127615</v>
       </c>
       <c r="H7">
-        <v>2.34195</v>
+        <v>0.25523</v>
       </c>
       <c r="I7">
-        <v>0.4867992549719922</v>
+        <v>0.1021836655602519</v>
       </c>
       <c r="J7">
-        <v>0.3873938490071291</v>
+        <v>0.07052459767434344</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -865,214 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.5703895</v>
+        <v>0.9000629999999999</v>
       </c>
       <c r="N7">
-        <v>3.140779</v>
+        <v>1.800126</v>
       </c>
       <c r="O7">
-        <v>0.2426848973461828</v>
+        <v>0.178829653762339</v>
       </c>
       <c r="P7">
-        <v>0.1760298611592177</v>
+        <v>0.1267769271719646</v>
       </c>
       <c r="Q7">
-        <v>1.8388868447625</v>
+        <v>0.114861539745</v>
       </c>
       <c r="R7">
-        <v>7.355547379050001</v>
+        <v>0.45944615898</v>
       </c>
       <c r="S7">
-        <v>0.1181388272210762</v>
+        <v>0.0182734695323065</v>
       </c>
       <c r="T7">
-        <v>0.0681928854546599</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G8">
-        <v>0.113219</v>
-      </c>
-      <c r="H8">
-        <v>0.339657</v>
-      </c>
-      <c r="I8">
-        <v>0.04706755041625482</v>
-      </c>
-      <c r="J8">
-        <v>0.05618439017579985</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>1.986848333333333</v>
-      </c>
-      <c r="N8">
-        <v>5.960545</v>
-      </c>
-      <c r="O8">
-        <v>0.3070436244112906</v>
-      </c>
-      <c r="P8">
-        <v>0.3340680476987617</v>
-      </c>
-      <c r="Q8">
-        <v>0.2249489814516667</v>
-      </c>
-      <c r="R8">
-        <v>2.024540833065</v>
-      </c>
-      <c r="S8">
-        <v>0.01445179127196803</v>
-      </c>
-      <c r="T8">
-        <v>0.01876940953717494</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G9">
-        <v>0.113219</v>
-      </c>
-      <c r="H9">
-        <v>0.339657</v>
-      </c>
-      <c r="I9">
-        <v>0.04706755041625482</v>
-      </c>
-      <c r="J9">
-        <v>0.05618439017579985</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>2.913661333333334</v>
-      </c>
-      <c r="N9">
-        <v>8.740984000000001</v>
-      </c>
-      <c r="O9">
-        <v>0.4502714782425266</v>
-      </c>
-      <c r="P9">
-        <v>0.4899020911420204</v>
-      </c>
-      <c r="Q9">
-        <v>0.3298818224986668</v>
-      </c>
-      <c r="R9">
-        <v>2.968936402488001</v>
-      </c>
-      <c r="S9">
-        <v>0.0211931755031817</v>
-      </c>
-      <c r="T9">
-        <v>0.02752485023666353</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G10">
-        <v>0.113219</v>
-      </c>
-      <c r="H10">
-        <v>0.339657</v>
-      </c>
-      <c r="I10">
-        <v>0.04706755041625482</v>
-      </c>
-      <c r="J10">
-        <v>0.05618439017579985</v>
-      </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>1.5703895</v>
-      </c>
-      <c r="N10">
-        <v>3.140779</v>
-      </c>
-      <c r="O10">
-        <v>0.2426848973461828</v>
-      </c>
-      <c r="P10">
-        <v>0.1760298611592177</v>
-      </c>
-      <c r="Q10">
-        <v>0.1777979288005</v>
-      </c>
-      <c r="R10">
-        <v>1.066787572803</v>
-      </c>
-      <c r="S10">
-        <v>0.01142258364110508</v>
-      </c>
-      <c r="T10">
-        <v>0.009890130401961364</v>
+        <v>0.00894089178319234</v>
       </c>
     </row>
   </sheetData>
